--- a/sandbox/osm_utcanev_export.xlsx
+++ b/sandbox/osm_utcanev_export.xlsx
@@ -18010,7 +18010,7 @@
         <v>1</v>
       </c>
       <c r="G379" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="380">
@@ -18033,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="G380" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="381">
@@ -22748,7 +22748,7 @@
         <v>0</v>
       </c>
       <c r="G585" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="586">
@@ -49037,7 +49037,7 @@
         <v>0</v>
       </c>
       <c r="G1728" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1729">
@@ -52050,7 +52050,7 @@
         <v>0</v>
       </c>
       <c r="G1859" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1860">
@@ -74222,7 +74222,7 @@
         <v>0</v>
       </c>
       <c r="G2823" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2824">
